--- a/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457ACBED-57F6-407C-8116-69A11E79BD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,21 @@
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
     <sheet name="摘要" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="324">
   <si>
     <t>備註說明</t>
   </si>
@@ -122,9 +132,6 @@
     <t>新繳款總期數</t>
   </si>
   <si>
-    <t>交易別</t>
-  </si>
-  <si>
     <t>暫收原因</t>
   </si>
   <si>
@@ -288,10 +295,6 @@
   </si>
   <si>
     <t>LawFee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewDueAmt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -576,15 +579,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0: 臨櫃交易  1: 批次交易</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他欄位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxTypeCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1082,10 +1077,6 @@
   </si>
   <si>
     <t>暫收款金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首筆，存入暫收為正、暫收抵繳為負</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1315,12 +1306,37 @@
     <t>AcDate asc ,CustNo asc ,FacmNo asc ,BormNo asc ,BorxNo asc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>NewDueAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入暫收為正、暫收抵繳為負</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RepayCode
+01 匯款轉帳
+02 銀行扣款
+03 員工扣薪
+04 支票
+05 特約金
+06 人事特約金
+07 定存特約
+08 劃撥存款
+09 其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1422,6 +1438,22 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="標楷體"/>
@@ -1535,7 +1567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1679,6 +1711,21 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1773,6 +1820,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1808,6 +1872,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1983,14 +2064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
@@ -2003,16 +2084,16 @@
     <col min="9" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="23"/>
@@ -2020,14 +2101,14 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
@@ -2035,16 +2116,16 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="32.4">
+    <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
@@ -2052,9 +2133,9 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="8"/>
@@ -2065,9 +2146,9 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="7"/>
@@ -2078,9 +2159,9 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="7"/>
@@ -2091,9 +2172,9 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="7"/>
@@ -2104,7 +2185,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2128,18 +2209,18 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1">
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="14">
         <v>7</v>
@@ -2148,42 +2229,42 @@
       <c r="G9" s="19"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="14">
         <v>3</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A52" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="14">
         <v>3</v>
@@ -2192,19 +2273,19 @@
       <c r="G11" s="19"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E12" s="14">
         <v>4</v>
@@ -2213,19 +2294,19 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="14">
         <v>8</v>
@@ -2234,19 +2315,19 @@
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="14">
         <v>8</v>
@@ -2255,19 +2336,19 @@
       <c r="G14" s="19"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
+    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="14">
         <v>4</v>
@@ -2276,19 +2357,19 @@
       <c r="G15" s="25"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="21.6" customHeight="1">
+    <row r="16" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="14">
         <v>6</v>
@@ -2297,19 +2378,19 @@
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1">
+    <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E17" s="14">
         <v>8</v>
@@ -2318,19 +2399,19 @@
       <c r="G17" s="25"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" s="14">
         <v>5</v>
@@ -2339,65 +2420,65 @@
       <c r="G18" s="25"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="41.25" customHeight="1">
+    <row r="19" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1">
+    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="24.75" customHeight="1">
+    <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E21" s="14">
         <v>3</v>
@@ -2406,19 +2487,19 @@
       <c r="G21" s="27"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" s="14">
         <v>6</v>
@@ -2427,42 +2508,42 @@
       <c r="G22" s="25"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="23" spans="1:8" ht="162" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>145</v>
+        <v>323</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="14"/>
-      <c r="G23" s="25" t="s">
-        <v>143</v>
+      <c r="G23" s="26" t="s">
+        <v>322</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="E24" s="14">
         <v>15</v>
@@ -2471,19 +2552,19 @@
       <c r="G24" s="25"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E25" s="14">
         <v>8</v>
@@ -2492,65 +2573,65 @@
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="14">
         <v>26</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="25" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1">
+    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E27" s="14">
         <v>1</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E28" s="14">
         <v>8</v>
@@ -2559,19 +2640,19 @@
       <c r="G28" s="25"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E29" s="14">
         <v>8</v>
@@ -2580,19 +2661,19 @@
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" s="14">
         <v>16</v>
@@ -2601,23 +2682,23 @@
         <v>2</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E31" s="14">
         <v>16</v>
@@ -2628,19 +2709,19 @@
       <c r="G31" s="20"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E32" s="4">
         <v>8</v>
@@ -2649,19 +2730,19 @@
       <c r="G32" s="26"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="14">
         <v>8</v>
@@ -2670,19 +2751,19 @@
       <c r="G33" s="27"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E34" s="36">
         <v>3</v>
@@ -2691,19 +2772,19 @@
       <c r="G34" s="26"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1">
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E35" s="14">
         <v>6</v>
@@ -2714,19 +2795,19 @@
       <c r="G35" s="20"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="25.5" customHeight="1">
+    <row r="36" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E36" s="14">
         <v>16</v>
@@ -2735,23 +2816,23 @@
         <v>2</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="37" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E37" s="14">
         <v>16</v>
@@ -2760,23 +2841,23 @@
         <v>2</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E38" s="14">
         <v>16</v>
@@ -2785,23 +2866,23 @@
         <v>2</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E39" s="14">
         <v>16</v>
@@ -2810,23 +2891,23 @@
         <v>2</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E40" s="14">
         <v>16</v>
@@ -2835,23 +2916,23 @@
         <v>2</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E41" s="14">
         <v>16</v>
@@ -2860,23 +2941,23 @@
         <v>2</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E42" s="14">
         <v>16</v>
@@ -2885,23 +2966,23 @@
         <v>2</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1">
+    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E43" s="14">
         <v>16</v>
@@ -2912,19 +2993,19 @@
       <c r="G43" s="25"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="22.2" customHeight="1">
+    <row r="44" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E44" s="14">
         <v>16</v>
@@ -2935,19 +3016,19 @@
       <c r="G44" s="25"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1">
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" s="14">
         <v>16</v>
@@ -2956,23 +3037,23 @@
         <v>2</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" s="14">
         <v>16</v>
@@ -2981,23 +3062,23 @@
         <v>2</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1">
+    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" s="14">
         <v>16</v>
@@ -3006,65 +3087,65 @@
         <v>2</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="123" customHeight="1">
+    <row r="48" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E48" s="14">
         <v>2000</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="20"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E50" s="14">
         <v>6</v>
@@ -3073,38 +3154,38 @@
       <c r="G50" s="20"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="20"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E52" s="14">
         <v>6</v>
@@ -3130,15 +3211,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="129.88671875" style="3" customWidth="1"/>
@@ -3146,9 +3227,9 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -3157,119 +3238,119 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3280,14 +3361,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="30"/>
     <col min="2" max="2" width="29.33203125" style="30" customWidth="1"/>
@@ -3300,26 +3381,26 @@
     <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" s="34">
         <v>16</v>
@@ -3329,19 +3410,19 @@
       </c>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" s="34">
         <v>16</v>
@@ -3351,19 +3432,19 @@
       </c>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A52" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="34">
         <v>16</v>
@@ -3373,19 +3454,19 @@
       </c>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
+    <row r="5" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="34">
         <v>16</v>
@@ -3395,19 +3476,19 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="34">
         <v>16</v>
@@ -3417,16 +3498,16 @@
       </c>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="33" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="34">
         <v>16</v>
@@ -3435,22 +3516,22 @@
         <v>2</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <f>A6+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="34">
         <v>16</v>
@@ -3460,19 +3541,19 @@
       </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="9" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9" s="34">
         <v>16</v>
@@ -3481,22 +3562,22 @@
         <v>2</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="34">
         <v>16</v>
@@ -3505,22 +3586,22 @@
         <v>2</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="34">
         <v>16</v>
@@ -3529,22 +3610,22 @@
         <v>2</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="34">
         <v>16</v>
@@ -3553,22 +3634,22 @@
         <v>2</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="34">
         <v>16</v>
@@ -3578,19 +3659,19 @@
       </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="14" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="34">
         <v>16</v>
@@ -3600,19 +3681,19 @@
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1">
+    <row r="15" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="34">
         <v>16</v>
@@ -3622,151 +3703,149 @@
       </c>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="34">
-        <v>16</v>
-      </c>
-      <c r="F16" s="34">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F16" s="34"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:9" s="29" customFormat="1" ht="72" customHeight="1">
+    <row r="17" spans="1:9" s="29" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="34">
         <v>2</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="29" customFormat="1" ht="96" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="29" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E18" s="34">
         <v>1</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="29" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="29" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A19" s="34">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="33" t="s">
+      <c r="D19" s="34" t="s">
         <v>120</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>122</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="29" customFormat="1" ht="228" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="29" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="29" customFormat="1" ht="200.4" customHeight="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" s="34">
         <v>2</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E22" s="34">
         <v>7</v>
@@ -3774,19 +3853,19 @@
       <c r="F22" s="34"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="23" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" s="34">
         <v>14</v>
@@ -3794,19 +3873,19 @@
       <c r="F23" s="34"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="24" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="34">
         <v>7</v>
@@ -3814,19 +3893,19 @@
       <c r="F24" s="34"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E25" s="34">
         <v>3</v>
@@ -3834,19 +3913,19 @@
       <c r="F25" s="34"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26" s="34">
         <v>9</v>
@@ -3854,19 +3933,19 @@
       <c r="F26" s="34"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E27" s="34">
         <v>7</v>
@@ -3874,19 +3953,19 @@
       <c r="F27" s="34"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E28" s="34">
         <v>2</v>
@@ -3894,19 +3973,19 @@
       <c r="F28" s="34"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="18" customHeight="1">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E29" s="34">
         <v>2</v>
@@ -3914,94 +3993,94 @@
       <c r="F29" s="34"/>
       <c r="G29" s="35"/>
     </row>
-    <row r="30" spans="1:9" ht="96" customHeight="1">
+    <row r="30" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E30" s="32">
         <v>1</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="96" customHeight="1">
-      <c r="A31" s="34">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="48">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" s="50">
+        <v>2</v>
+      </c>
+      <c r="F31" s="49"/>
+      <c r="G31" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D31" s="32" t="s">
+      <c r="D32" s="32" t="s">
         <v>287</v>
-      </c>
-      <c r="E31" s="32">
-        <v>2</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="I31" s="41" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="32.4">
-      <c r="A32" s="34">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>292</v>
       </c>
       <c r="E32" s="32">
         <v>4</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="33" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E33" s="34">
         <v>6</v>
@@ -4009,19 +4088,19 @@
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
     </row>
-    <row r="34" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+    <row r="34" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E34" s="34">
         <v>6</v>
@@ -4029,35 +4108,35 @@
       <c r="F34" s="34"/>
       <c r="G34" s="35"/>
     </row>
-    <row r="35" spans="1:8" s="29" customFormat="1" ht="64.8">
+    <row r="35" spans="1:8" s="29" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A35" s="34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E35" s="34">
         <v>1</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="35" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="31.2" customHeight="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="31" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
@@ -4065,19 +4144,19 @@
       <c r="F36" s="31"/>
       <c r="G36" s="33"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E37" s="32">
         <v>16</v>
@@ -4087,19 +4166,19 @@
       </c>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E38" s="32">
         <v>6</v>
@@ -4109,19 +4188,19 @@
       </c>
       <c r="G38" s="38"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E39" s="32">
         <v>16</v>
@@ -4131,19 +4210,19 @@
       </c>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E40" s="32">
         <v>3</v>
@@ -4151,19 +4230,19 @@
       <c r="F40" s="31"/>
       <c r="G40" s="33"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E41" s="32">
         <v>3</v>
@@ -4171,19 +4250,19 @@
       <c r="F41" s="31"/>
       <c r="G41" s="33"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E42" s="32">
         <v>8</v>
@@ -4191,19 +4270,19 @@
       <c r="F42" s="31"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E43" s="32">
         <v>8</v>
@@ -4211,19 +4290,19 @@
       <c r="F43" s="31"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E44" s="32">
         <v>8</v>
@@ -4231,19 +4310,19 @@
       <c r="F44" s="31"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E45" s="32">
         <v>8</v>
@@ -4251,19 +4330,19 @@
       <c r="F45" s="31"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E46" s="32">
         <v>16</v>
@@ -4271,89 +4350,89 @@
       <c r="F46" s="31"/>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E47" s="32">
         <v>8</v>
       </c>
       <c r="F47" s="31"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E48" s="32">
         <v>4</v>
       </c>
       <c r="F48" s="31"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E49" s="32">
         <v>6</v>
       </c>
       <c r="F49" s="31"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E50" s="32">
         <v>8</v>
       </c>
       <c r="F50" s="31"/>
     </row>
-    <row r="51" spans="1:7" ht="31.2" customHeight="1">
+    <row r="51" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="32"/>
@@ -4361,19 +4440,19 @@
       <c r="F51" s="31"/>
       <c r="G51" s="33"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E52" s="32">
         <v>3</v>
@@ -4388,141 +4467,141 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>210</v>
       </c>
-      <c r="B1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>211</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" t="s">
         <v>215</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" t="s">
         <v>218</v>
       </c>
-      <c r="B9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>221</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B27" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
